--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3677,28 +3677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2659.971107508634</v>
+        <v>2789.471624440886</v>
       </c>
       <c r="AB2" t="n">
-        <v>3639.489818936662</v>
+        <v>3816.678139362973</v>
       </c>
       <c r="AC2" t="n">
-        <v>3292.142018673252</v>
+        <v>3452.419734483438</v>
       </c>
       <c r="AD2" t="n">
-        <v>2659971.107508634</v>
+        <v>2789471.624440887</v>
       </c>
       <c r="AE2" t="n">
-        <v>3639489.818936662</v>
+        <v>3816678.139362973</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.024838103225391e-06</v>
+        <v>1.477472623755448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.65416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3292142.018673252</v>
+        <v>3452419.734483439</v>
       </c>
     </row>
     <row r="3">
@@ -3783,28 +3783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>918.0725899477752</v>
+        <v>995.6022183979834</v>
       </c>
       <c r="AB3" t="n">
-        <v>1256.147420070692</v>
+        <v>1362.226878082077</v>
       </c>
       <c r="AC3" t="n">
-        <v>1136.262473313121</v>
+        <v>1232.217856735354</v>
       </c>
       <c r="AD3" t="n">
-        <v>918072.5899477752</v>
+        <v>995602.2183979833</v>
       </c>
       <c r="AE3" t="n">
-        <v>1256147.420070692</v>
+        <v>1362226.878082077</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.918526106123433e-06</v>
+        <v>2.765870814947742e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.84166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1136262.473313121</v>
+        <v>1232217.856735354</v>
       </c>
     </row>
     <row r="4">
@@ -3889,28 +3889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>713.0149569804463</v>
+        <v>773.4485315488308</v>
       </c>
       <c r="AB4" t="n">
-        <v>975.5785201404963</v>
+        <v>1058.266403006103</v>
       </c>
       <c r="AC4" t="n">
-        <v>882.4706754113392</v>
+        <v>957.266942789425</v>
       </c>
       <c r="AD4" t="n">
-        <v>713014.9569804464</v>
+        <v>773448.5315488308</v>
       </c>
       <c r="AE4" t="n">
-        <v>975578.5201404963</v>
+        <v>1058266.403006103</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.242973072895429e-06</v>
+        <v>3.233614461244129e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.55</v>
       </c>
       <c r="AH4" t="n">
-        <v>882470.6754113393</v>
+        <v>957266.942789425</v>
       </c>
     </row>
     <row r="5">
@@ -3995,28 +3995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>629.6239983892721</v>
+        <v>689.9722321030847</v>
       </c>
       <c r="AB5" t="n">
-        <v>861.4793316466057</v>
+        <v>944.0504473900149</v>
       </c>
       <c r="AC5" t="n">
-        <v>779.2609533280888</v>
+        <v>853.9515976742357</v>
       </c>
       <c r="AD5" t="n">
-        <v>629623.998389272</v>
+        <v>689972.2321030847</v>
       </c>
       <c r="AE5" t="n">
-        <v>861479.3316466057</v>
+        <v>944050.4473900149</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.412782546511707e-06</v>
+        <v>3.478422736553929e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.59583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>779260.9533280889</v>
+        <v>853951.5976742357</v>
       </c>
     </row>
     <row r="6">
@@ -4101,28 +4101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>572.3166304310149</v>
+        <v>632.579523290256</v>
       </c>
       <c r="AB6" t="n">
-        <v>783.0688625834773</v>
+        <v>865.5232112046886</v>
       </c>
       <c r="AC6" t="n">
-        <v>708.3338693825607</v>
+        <v>782.9188906967689</v>
       </c>
       <c r="AD6" t="n">
-        <v>572316.6304310149</v>
+        <v>632579.523290256</v>
       </c>
       <c r="AE6" t="n">
-        <v>783068.8625834773</v>
+        <v>865523.2112046885</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.533866621341184e-06</v>
+        <v>3.652985338364181e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.99375</v>
       </c>
       <c r="AH6" t="n">
-        <v>708333.8693825607</v>
+        <v>782918.8906967689</v>
       </c>
     </row>
     <row r="7">
@@ -4207,28 +4207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>554.0522057927401</v>
+        <v>605.852412565641</v>
       </c>
       <c r="AB7" t="n">
-        <v>758.0786710238428</v>
+        <v>828.9539991943632</v>
       </c>
       <c r="AC7" t="n">
-        <v>685.7287066314237</v>
+        <v>749.8397929554973</v>
       </c>
       <c r="AD7" t="n">
-        <v>554052.2057927401</v>
+        <v>605852.412565641</v>
       </c>
       <c r="AE7" t="n">
-        <v>758078.6710238429</v>
+        <v>828953.9991943631</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.577340180737791e-06</v>
+        <v>3.715659621905693e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.79166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>685728.7066314238</v>
+        <v>749839.7929554973</v>
       </c>
     </row>
     <row r="8">
@@ -4313,28 +4313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>527.8949391058496</v>
+        <v>579.6951458787506</v>
       </c>
       <c r="AB8" t="n">
-        <v>722.2891447656768</v>
+        <v>793.1644729361967</v>
       </c>
       <c r="AC8" t="n">
-        <v>653.3548825284214</v>
+        <v>717.4659688524948</v>
       </c>
       <c r="AD8" t="n">
-        <v>527894.9391058496</v>
+        <v>579695.1458787506</v>
       </c>
       <c r="AE8" t="n">
-        <v>722289.1447656768</v>
+        <v>793164.4729361967</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.639632831282594e-06</v>
+        <v>3.805464719463498e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.51458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>653354.8825284214</v>
+        <v>717465.9688524948</v>
       </c>
     </row>
     <row r="9">
@@ -4419,28 +4419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>507.1111698273008</v>
+        <v>558.7407843996095</v>
       </c>
       <c r="AB9" t="n">
-        <v>693.8518747235785</v>
+        <v>764.4937911192517</v>
       </c>
       <c r="AC9" t="n">
-        <v>627.6316256271817</v>
+        <v>691.5315766686042</v>
       </c>
       <c r="AD9" t="n">
-        <v>507111.1698273008</v>
+        <v>558740.7843996095</v>
       </c>
       <c r="AE9" t="n">
-        <v>693851.8747235785</v>
+        <v>764493.7911192516</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.685148772664277e-06</v>
+        <v>3.871083432433135e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.31875</v>
       </c>
       <c r="AH9" t="n">
-        <v>627631.6256271817</v>
+        <v>691531.5766686042</v>
       </c>
     </row>
     <row r="10">
@@ -4525,28 +4525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>484.5847913329655</v>
+        <v>527.751719818934</v>
       </c>
       <c r="AB10" t="n">
-        <v>663.030289873948</v>
+        <v>722.0931858189299</v>
       </c>
       <c r="AC10" t="n">
-        <v>599.7516095772341</v>
+        <v>653.1776256285219</v>
       </c>
       <c r="AD10" t="n">
-        <v>484584.7913329655</v>
+        <v>527751.719818934</v>
       </c>
       <c r="AE10" t="n">
-        <v>663030.2898739481</v>
+        <v>722093.1858189299</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.731977673893509e-06</v>
+        <v>3.93859499289228e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.125</v>
       </c>
       <c r="AH10" t="n">
-        <v>599751.6095772341</v>
+        <v>653177.6256285219</v>
       </c>
     </row>
     <row r="11">
@@ -4631,28 +4631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>476.0134562019662</v>
+        <v>519.1803846879346</v>
       </c>
       <c r="AB11" t="n">
-        <v>651.3026110070967</v>
+        <v>710.3655069520785</v>
       </c>
       <c r="AC11" t="n">
-        <v>589.1432039215343</v>
+        <v>642.5692199728221</v>
       </c>
       <c r="AD11" t="n">
-        <v>476013.4562019662</v>
+        <v>519180.3846879347</v>
       </c>
       <c r="AE11" t="n">
-        <v>651302.6110070967</v>
+        <v>710365.5069520784</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.7398554329788e-06</v>
+        <v>3.949952077829333e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.09166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>589143.2039215344</v>
+        <v>642569.2199728221</v>
       </c>
     </row>
     <row r="12">
@@ -4737,28 +4737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>470.8168739131552</v>
+        <v>513.9838023991238</v>
       </c>
       <c r="AB12" t="n">
-        <v>644.1924178625151</v>
+        <v>703.2553138074969</v>
       </c>
       <c r="AC12" t="n">
-        <v>582.7115976314529</v>
+        <v>636.1376136827406</v>
       </c>
       <c r="AD12" t="n">
-        <v>470816.8739131552</v>
+        <v>513983.8023991237</v>
       </c>
       <c r="AE12" t="n">
-        <v>644192.4178625151</v>
+        <v>703255.3138074969</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.748316729774113e-06</v>
+        <v>3.962150428317278e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.05833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>582711.597631453</v>
+        <v>636137.6136827406</v>
       </c>
     </row>
     <row r="13">
@@ -4843,28 +4843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>472.2090025578968</v>
+        <v>515.3759310438653</v>
       </c>
       <c r="AB13" t="n">
-        <v>646.0971896906319</v>
+        <v>705.1600856356137</v>
       </c>
       <c r="AC13" t="n">
-        <v>584.4345807096582</v>
+        <v>637.860596760946</v>
       </c>
       <c r="AD13" t="n">
-        <v>472209.0025578968</v>
+        <v>515375.9310438653</v>
       </c>
       <c r="AE13" t="n">
-        <v>646097.1896906319</v>
+        <v>705160.0856356137</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.748170845346607e-06</v>
+        <v>3.961940111929555e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.05833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>584434.5807096582</v>
+        <v>637860.596760946</v>
       </c>
     </row>
   </sheetData>
@@ -5140,28 +5140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1623.331592476087</v>
+        <v>1724.170082935531</v>
       </c>
       <c r="AB2" t="n">
-        <v>2221.113901161215</v>
+        <v>2359.085572488053</v>
       </c>
       <c r="AC2" t="n">
-        <v>2009.133907787327</v>
+        <v>2133.937756447188</v>
       </c>
       <c r="AD2" t="n">
-        <v>1623331.592476087</v>
+        <v>1724170.082935531</v>
       </c>
       <c r="AE2" t="n">
-        <v>2221113.901161215</v>
+        <v>2359085.572488053</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.349485499742858e-06</v>
+        <v>1.975596005392138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.29791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2009133.907787327</v>
+        <v>2133937.756447189</v>
       </c>
     </row>
     <row r="3">
@@ -5246,28 +5246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>729.5847397260042</v>
+        <v>788.592045465597</v>
       </c>
       <c r="AB3" t="n">
-        <v>998.2500279001915</v>
+        <v>1078.986426831706</v>
       </c>
       <c r="AC3" t="n">
-        <v>902.97844629011</v>
+        <v>976.0094766218481</v>
       </c>
       <c r="AD3" t="n">
-        <v>729584.7397260042</v>
+        <v>788592.0454655971</v>
       </c>
       <c r="AE3" t="n">
-        <v>998250.0279001915</v>
+        <v>1078986.426831705</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.166541471070059e-06</v>
+        <v>3.171735210625088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.5125</v>
       </c>
       <c r="AH3" t="n">
-        <v>902978.44629011</v>
+        <v>976009.4766218481</v>
       </c>
     </row>
     <row r="4">
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>585.2215458482996</v>
+        <v>644.0581698787491</v>
       </c>
       <c r="AB4" t="n">
-        <v>800.7259371820934</v>
+        <v>881.2288018692121</v>
       </c>
       <c r="AC4" t="n">
-        <v>724.3057775633447</v>
+        <v>797.1255618312051</v>
       </c>
       <c r="AD4" t="n">
-        <v>585221.5458482995</v>
+        <v>644058.1698787492</v>
       </c>
       <c r="AE4" t="n">
-        <v>800725.9371820934</v>
+        <v>881228.8018692122</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.459770091736618e-06</v>
+        <v>3.601010880327271e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.78125</v>
       </c>
       <c r="AH4" t="n">
-        <v>724305.7775633447</v>
+        <v>797125.5618312052</v>
       </c>
     </row>
     <row r="5">
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>518.3158907912012</v>
+        <v>577.0671739670793</v>
       </c>
       <c r="AB5" t="n">
-        <v>709.1826682637886</v>
+        <v>789.56876582871</v>
       </c>
       <c r="AC5" t="n">
-        <v>641.4992697488182</v>
+        <v>714.2134309847398</v>
       </c>
       <c r="AD5" t="n">
-        <v>518315.8907912012</v>
+        <v>577067.1739670793</v>
       </c>
       <c r="AE5" t="n">
-        <v>709182.6682637887</v>
+        <v>789568.7658287099</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.620193161097684e-06</v>
+        <v>3.835864218923988e-06</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>641499.2697488181</v>
+        <v>714213.4309847398</v>
       </c>
     </row>
     <row r="6">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>492.5590551522764</v>
+        <v>543.0635964822947</v>
       </c>
       <c r="AB6" t="n">
-        <v>673.94102943122</v>
+        <v>743.0435709820628</v>
       </c>
       <c r="AC6" t="n">
-        <v>609.6210434644793</v>
+        <v>672.1285354357356</v>
       </c>
       <c r="AD6" t="n">
-        <v>492559.0551522764</v>
+        <v>543063.5964822946</v>
       </c>
       <c r="AE6" t="n">
-        <v>673941.02943122</v>
+        <v>743043.5709820627</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.685841359754377e-06</v>
+        <v>3.931970712140895e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.70625</v>
       </c>
       <c r="AH6" t="n">
-        <v>609621.0434644793</v>
+        <v>672128.5354357356</v>
       </c>
     </row>
     <row r="7">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>460.3749589844978</v>
+        <v>510.7089081139237</v>
       </c>
       <c r="AB7" t="n">
-        <v>629.9053291923515</v>
+        <v>698.7744589683472</v>
       </c>
       <c r="AC7" t="n">
-        <v>569.7880486519148</v>
+        <v>632.0844053405201</v>
       </c>
       <c r="AD7" t="n">
-        <v>460374.9589844978</v>
+        <v>510708.9081139237</v>
       </c>
       <c r="AE7" t="n">
-        <v>629905.3291923514</v>
+        <v>698774.4589683472</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.770203067913207e-06</v>
+        <v>4.055473079286299e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.35</v>
       </c>
       <c r="AH7" t="n">
-        <v>569788.0486519148</v>
+        <v>632084.4053405201</v>
       </c>
     </row>
     <row r="8">
@@ -5776,28 +5776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>438.7671344338062</v>
+        <v>480.8543417173724</v>
       </c>
       <c r="AB8" t="n">
-        <v>600.3405503721546</v>
+        <v>657.9261241340718</v>
       </c>
       <c r="AC8" t="n">
-        <v>543.0448908278896</v>
+        <v>595.1345782518299</v>
       </c>
       <c r="AD8" t="n">
-        <v>438767.1344338062</v>
+        <v>480854.3417173724</v>
       </c>
       <c r="AE8" t="n">
-        <v>600340.5503721546</v>
+        <v>657926.1241340718</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.817439587866183e-06</v>
+        <v>4.124625567509039e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.15833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>543044.8908278897</v>
+        <v>595134.57825183</v>
       </c>
     </row>
     <row r="9">
@@ -5882,28 +5882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>433.1928327204395</v>
+        <v>475.2800400040056</v>
       </c>
       <c r="AB9" t="n">
-        <v>592.7135448470907</v>
+        <v>650.299118609008</v>
       </c>
       <c r="AC9" t="n">
-        <v>536.1457960055685</v>
+        <v>588.2354834295089</v>
       </c>
       <c r="AD9" t="n">
-        <v>433192.8327204395</v>
+        <v>475280.0400040057</v>
       </c>
       <c r="AE9" t="n">
-        <v>592713.5448470907</v>
+        <v>650299.118609008</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.828003665810938e-06</v>
+        <v>4.14009098021061e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.11666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>536145.7960055685</v>
+        <v>588235.4834295089</v>
       </c>
     </row>
     <row r="10">
@@ -5988,28 +5988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>434.5195566053977</v>
+        <v>476.6067638889638</v>
       </c>
       <c r="AB10" t="n">
-        <v>594.5288269974174</v>
+        <v>652.1144007593348</v>
       </c>
       <c r="AC10" t="n">
-        <v>537.7878301752326</v>
+        <v>589.8775175991728</v>
       </c>
       <c r="AD10" t="n">
-        <v>434519.5566053977</v>
+        <v>476606.7638889638</v>
       </c>
       <c r="AE10" t="n">
-        <v>594528.8269974174</v>
+        <v>652114.4007593348</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.829210989004625e-06</v>
+        <v>4.141858455947933e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.1125</v>
       </c>
       <c r="AH10" t="n">
-        <v>537787.8301752326</v>
+        <v>589877.5175991729</v>
       </c>
     </row>
   </sheetData>
@@ -6285,28 +6285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>547.9187004131923</v>
+        <v>609.9716694325393</v>
       </c>
       <c r="AB2" t="n">
-        <v>749.6865383723857</v>
+        <v>834.5901481684405</v>
       </c>
       <c r="AC2" t="n">
-        <v>678.1375073417895</v>
+        <v>754.9380357818736</v>
       </c>
       <c r="AD2" t="n">
-        <v>547918.7004131923</v>
+        <v>609971.6694325394</v>
       </c>
       <c r="AE2" t="n">
-        <v>749686.5383723857</v>
+        <v>834590.1481684404</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.367193184480276e-06</v>
+        <v>3.662340045946296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.82083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>678137.5073417895</v>
+        <v>754938.0357818736</v>
       </c>
     </row>
     <row r="3">
@@ -6391,28 +6391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>358.2640608704243</v>
+        <v>404.8677932758634</v>
       </c>
       <c r="AB3" t="n">
-        <v>490.1926935777853</v>
+        <v>553.9579762664747</v>
       </c>
       <c r="AC3" t="n">
-        <v>443.4093908924871</v>
+        <v>501.0890044965045</v>
       </c>
       <c r="AD3" t="n">
-        <v>358264.0608704243</v>
+        <v>404867.7932758634</v>
       </c>
       <c r="AE3" t="n">
-        <v>490192.6935777853</v>
+        <v>553957.9762664747</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.954402591486233e-06</v>
+        <v>4.570825479553377e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>443409.3908924871</v>
+        <v>501089.0044965044</v>
       </c>
     </row>
     <row r="4">
@@ -6497,28 +6497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>343.5787913916625</v>
+        <v>390.1825237971016</v>
       </c>
       <c r="AB4" t="n">
-        <v>470.0996600085783</v>
+        <v>533.8649426972678</v>
       </c>
       <c r="AC4" t="n">
-        <v>425.2340082463755</v>
+        <v>482.9136218503928</v>
       </c>
       <c r="AD4" t="n">
-        <v>343578.7913916625</v>
+        <v>390182.5237971016</v>
       </c>
       <c r="AE4" t="n">
-        <v>470099.6600085783</v>
+        <v>533864.9426972677</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.017215642479414e-06</v>
+        <v>4.668005022637816e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.62708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>425234.0082463755</v>
+        <v>482913.6218503928</v>
       </c>
     </row>
   </sheetData>
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>813.1374069871466</v>
+        <v>877.3092205896545</v>
       </c>
       <c r="AB2" t="n">
-        <v>1112.570473330416</v>
+        <v>1200.373179761976</v>
       </c>
       <c r="AC2" t="n">
-        <v>1006.388308858226</v>
+        <v>1085.811248219832</v>
       </c>
       <c r="AD2" t="n">
-        <v>813137.4069871466</v>
+        <v>877309.2205896545</v>
       </c>
       <c r="AE2" t="n">
-        <v>1112570.473330416</v>
+        <v>1200373.179761976</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.9577182373667e-06</v>
+        <v>2.958687764036164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.14375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1006388.308858226</v>
+        <v>1085811.248219832</v>
       </c>
     </row>
     <row r="3">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>481.7492976942152</v>
+        <v>537.8142154218556</v>
       </c>
       <c r="AB3" t="n">
-        <v>659.1506423842592</v>
+        <v>735.8611362288226</v>
       </c>
       <c r="AC3" t="n">
-        <v>596.2422301988416</v>
+        <v>665.6315821747343</v>
       </c>
       <c r="AD3" t="n">
-        <v>481749.2976942152</v>
+        <v>537814.2154218556</v>
       </c>
       <c r="AE3" t="n">
-        <v>659150.6423842591</v>
+        <v>735861.1362288226</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.630965810931169e-06</v>
+        <v>3.976162761230628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.75625</v>
       </c>
       <c r="AH3" t="n">
-        <v>596242.2301988417</v>
+        <v>665631.5821747342</v>
       </c>
     </row>
     <row r="4">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>399.4929708412167</v>
+        <v>447.6217639116843</v>
       </c>
       <c r="AB4" t="n">
-        <v>546.6039070909605</v>
+        <v>612.45584506247</v>
       </c>
       <c r="AC4" t="n">
-        <v>494.4367973616003</v>
+        <v>554.0039187968842</v>
       </c>
       <c r="AD4" t="n">
-        <v>399492.9708412167</v>
+        <v>447621.7639116843</v>
       </c>
       <c r="AE4" t="n">
-        <v>546603.9070909605</v>
+        <v>612455.8450624699</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.884863436185442e-06</v>
+        <v>4.359876710878504e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.63333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>494436.7973616003</v>
+        <v>554003.9187968842</v>
       </c>
     </row>
     <row r="5">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>374.673390229708</v>
+        <v>422.6315910995833</v>
       </c>
       <c r="AB5" t="n">
-        <v>512.6446619356764</v>
+        <v>578.2631881323387</v>
       </c>
       <c r="AC5" t="n">
-        <v>463.7185749018365</v>
+        <v>523.0745610544694</v>
       </c>
       <c r="AD5" t="n">
-        <v>374673.390229708</v>
+        <v>422631.5910995833</v>
       </c>
       <c r="AE5" t="n">
-        <v>512644.6619356764</v>
+        <v>578263.1881323387</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.956554072757873e-06</v>
+        <v>4.468222337524002e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.35208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>463718.5749018365</v>
+        <v>523074.5610544694</v>
       </c>
     </row>
     <row r="6">
@@ -7218,28 +7218,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>374.8076976103976</v>
+        <v>422.765898480273</v>
       </c>
       <c r="AB6" t="n">
-        <v>512.8284272191593</v>
+        <v>578.4469534158218</v>
       </c>
       <c r="AC6" t="n">
-        <v>463.88480188458</v>
+        <v>523.2407880372131</v>
       </c>
       <c r="AD6" t="n">
-        <v>374807.6976103976</v>
+        <v>422765.898480273</v>
       </c>
       <c r="AE6" t="n">
-        <v>512828.4272191593</v>
+        <v>578446.9534158218</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.961870457043019e-06</v>
+        <v>4.476256957028051e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.33125</v>
       </c>
       <c r="AH6" t="n">
-        <v>463884.8018845801</v>
+        <v>523240.788037213</v>
       </c>
     </row>
   </sheetData>
@@ -7515,28 +7515,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.907622565874</v>
+        <v>452.6487118252699</v>
       </c>
       <c r="AB2" t="n">
-        <v>547.1712518737796</v>
+        <v>619.3339369711277</v>
       </c>
       <c r="AC2" t="n">
-        <v>494.9499955546205</v>
+        <v>560.2255752672423</v>
       </c>
       <c r="AD2" t="n">
-        <v>399907.622565874</v>
+        <v>452648.7118252699</v>
       </c>
       <c r="AE2" t="n">
-        <v>547171.2518737796</v>
+        <v>619333.9369711278</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.728570510431592e-06</v>
+        <v>4.312472922539923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>494949.9955546205</v>
+        <v>560225.5752672424</v>
       </c>
     </row>
     <row r="3">
@@ -7621,28 +7621,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>328.8164449723187</v>
+        <v>374.0840634491451</v>
       </c>
       <c r="AB3" t="n">
-        <v>449.9011663688724</v>
+        <v>511.8383190352474</v>
       </c>
       <c r="AC3" t="n">
-        <v>406.9632304908792</v>
+        <v>462.9891882361152</v>
       </c>
       <c r="AD3" t="n">
-        <v>328816.4449723187</v>
+        <v>374084.0634491451</v>
       </c>
       <c r="AE3" t="n">
-        <v>449901.1663688724</v>
+        <v>511838.3190352474</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.022747524632344e-06</v>
+        <v>4.777416160519036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.05416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>406963.2304908792</v>
+        <v>462989.1882361152</v>
       </c>
     </row>
   </sheetData>
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1821.919264454953</v>
+        <v>1931.998298082105</v>
       </c>
       <c r="AB2" t="n">
-        <v>2492.830315032461</v>
+        <v>2643.445305185352</v>
       </c>
       <c r="AC2" t="n">
-        <v>2254.918088475084</v>
+        <v>2391.158595357248</v>
       </c>
       <c r="AD2" t="n">
-        <v>1821919.264454952</v>
+        <v>1931998.298082105</v>
       </c>
       <c r="AE2" t="n">
-        <v>2492830.315032461</v>
+        <v>2643445.305185352</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.264826695874906e-06</v>
+        <v>1.843973497761443e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.63333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2254918.088475083</v>
+        <v>2391158.595357249</v>
       </c>
     </row>
     <row r="3">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>771.6793370496946</v>
+        <v>839.3874574146455</v>
       </c>
       <c r="AB3" t="n">
-        <v>1055.845713041032</v>
+        <v>1148.486950395812</v>
       </c>
       <c r="AC3" t="n">
-        <v>955.0772800771606</v>
+        <v>1038.876967761593</v>
       </c>
       <c r="AD3" t="n">
-        <v>771679.3370496946</v>
+        <v>839387.4574146455</v>
       </c>
       <c r="AE3" t="n">
-        <v>1055845.713041032</v>
+        <v>1148486.950395812</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.101613424433507e-06</v>
+        <v>3.063913396067612e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.82708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>955077.2800771606</v>
+        <v>1038876.967761593</v>
       </c>
     </row>
     <row r="4">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>613.5334721576786</v>
+        <v>672.7674098701891</v>
       </c>
       <c r="AB4" t="n">
-        <v>839.4635637926219</v>
+        <v>920.5100505877793</v>
       </c>
       <c r="AC4" t="n">
-        <v>759.346339458765</v>
+        <v>832.6578633036512</v>
       </c>
       <c r="AD4" t="n">
-        <v>613533.4721576786</v>
+        <v>672767.4098701891</v>
       </c>
       <c r="AE4" t="n">
-        <v>839463.5637926219</v>
+        <v>920510.0505877794</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.404920571085312e-06</v>
+        <v>3.506100726499232e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.95625</v>
       </c>
       <c r="AH4" t="n">
-        <v>759346.339458765</v>
+        <v>832657.8633036512</v>
       </c>
     </row>
     <row r="5">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>552.8272229281411</v>
+        <v>603.5870674967625</v>
       </c>
       <c r="AB5" t="n">
-        <v>756.4025954260685</v>
+        <v>825.8544541311522</v>
       </c>
       <c r="AC5" t="n">
-        <v>684.2125933363143</v>
+        <v>747.0360641228806</v>
       </c>
       <c r="AD5" t="n">
-        <v>552827.222928141</v>
+        <v>603587.0674967625</v>
       </c>
       <c r="AE5" t="n">
-        <v>756402.5954260685</v>
+        <v>825854.4541311522</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.56360345205058e-06</v>
+        <v>3.737442322942992e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.15416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>684212.5933363143</v>
+        <v>747036.0641228806</v>
       </c>
     </row>
     <row r="6">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>530.0621303071122</v>
+        <v>589.2107271650511</v>
       </c>
       <c r="AB6" t="n">
-        <v>725.2543913769722</v>
+        <v>806.1841110499319</v>
       </c>
       <c r="AC6" t="n">
-        <v>656.0371301648845</v>
+        <v>729.2430309778319</v>
       </c>
       <c r="AD6" t="n">
-        <v>530062.1303071121</v>
+        <v>589210.7271650512</v>
       </c>
       <c r="AE6" t="n">
-        <v>725254.3913769722</v>
+        <v>806184.1110499318</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.597403952614341e-06</v>
+        <v>3.786719609273143e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.99583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>656037.1301648845</v>
+        <v>729243.0309778319</v>
       </c>
     </row>
     <row r="7">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>484.0896931936329</v>
+        <v>534.7641969076827</v>
       </c>
       <c r="AB7" t="n">
-        <v>662.352874757525</v>
+        <v>731.6879663404109</v>
       </c>
       <c r="AC7" t="n">
-        <v>599.1388460087642</v>
+        <v>661.8566937633917</v>
       </c>
       <c r="AD7" t="n">
-        <v>484089.6931936329</v>
+        <v>534764.1969076827</v>
       </c>
       <c r="AE7" t="n">
-        <v>662352.874757525</v>
+        <v>731687.9663404109</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.720491616171755e-06</v>
+        <v>3.966167426307277e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.45208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>599138.8460087642</v>
+        <v>661856.6937633917</v>
       </c>
     </row>
     <row r="8">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>460.6324877154542</v>
+        <v>511.306991429504</v>
       </c>
       <c r="AB8" t="n">
-        <v>630.2576913634118</v>
+        <v>699.5927829462977</v>
       </c>
       <c r="AC8" t="n">
-        <v>570.1067818719125</v>
+        <v>632.8246296265398</v>
       </c>
       <c r="AD8" t="n">
-        <v>460632.4877154542</v>
+        <v>511306.991429504</v>
       </c>
       <c r="AE8" t="n">
-        <v>630257.6913634118</v>
+        <v>699592.7829462977</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.772388844913459e-06</v>
+        <v>4.041827684522154e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.23958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>570106.7818719125</v>
+        <v>632824.6296265399</v>
       </c>
     </row>
     <row r="9">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>442.4436429669904</v>
+        <v>484.814645737743</v>
       </c>
       <c r="AB9" t="n">
-        <v>605.3709115433662</v>
+        <v>663.3447868110254</v>
       </c>
       <c r="AC9" t="n">
-        <v>547.5951613890774</v>
+        <v>600.036091368036</v>
       </c>
       <c r="AD9" t="n">
-        <v>442443.6429669904</v>
+        <v>484814.645737743</v>
       </c>
       <c r="AE9" t="n">
-        <v>605370.9115433663</v>
+        <v>663344.7868110255</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.808582301269345e-06</v>
+        <v>4.094593628291608e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.09375</v>
       </c>
       <c r="AH9" t="n">
-        <v>547595.1613890773</v>
+        <v>600036.091368036</v>
       </c>
     </row>
     <row r="10">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>440.9902692524622</v>
+        <v>483.3612720232148</v>
       </c>
       <c r="AB10" t="n">
-        <v>603.3823415088257</v>
+        <v>661.3562167764849</v>
       </c>
       <c r="AC10" t="n">
-        <v>545.7963776876577</v>
+        <v>598.2373076666164</v>
       </c>
       <c r="AD10" t="n">
-        <v>440990.2692524621</v>
+        <v>483361.2720232148</v>
       </c>
       <c r="AE10" t="n">
-        <v>603382.3415088257</v>
+        <v>661356.2167764849</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.812769973905563e-06</v>
+        <v>4.100698778810389e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.07708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>545796.3776876577</v>
+        <v>598237.3076666164</v>
       </c>
     </row>
     <row r="11">
@@ -8872,28 +8872,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>442.5884396066221</v>
+        <v>484.9594423773748</v>
       </c>
       <c r="AB11" t="n">
-        <v>605.5690286936874</v>
+        <v>663.5429039613465</v>
       </c>
       <c r="AC11" t="n">
-        <v>547.7743705166309</v>
+        <v>600.2153004955896</v>
       </c>
       <c r="AD11" t="n">
-        <v>442588.4396066221</v>
+        <v>484959.4423773748</v>
       </c>
       <c r="AE11" t="n">
-        <v>605569.0286936874</v>
+        <v>663542.9039613465</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.813218653116586e-06</v>
+        <v>4.101352902080257e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.075</v>
       </c>
       <c r="AH11" t="n">
-        <v>547774.3705166309</v>
+        <v>600215.3004955896</v>
       </c>
     </row>
   </sheetData>
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.980900140494</v>
+        <v>377.943093153229</v>
       </c>
       <c r="AB2" t="n">
-        <v>446.0214488345606</v>
+        <v>517.11841372475</v>
       </c>
       <c r="AC2" t="n">
-        <v>403.4537877528244</v>
+        <v>467.7653580991112</v>
       </c>
       <c r="AD2" t="n">
-        <v>325980.900140494</v>
+        <v>377943.093153229</v>
       </c>
       <c r="AE2" t="n">
-        <v>446021.4488345606</v>
+        <v>517118.41372475</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.944329015248801e-06</v>
+        <v>4.717506698477446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.66458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>403453.7877528244</v>
+        <v>467765.3580991112</v>
       </c>
     </row>
     <row r="3">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>317.8969412268625</v>
+        <v>362.4238617671047</v>
       </c>
       <c r="AB3" t="n">
-        <v>434.960619609833</v>
+        <v>495.8843166820868</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.4485885453334</v>
+        <v>448.5578134759573</v>
       </c>
       <c r="AD3" t="n">
-        <v>317896.9412268625</v>
+        <v>362423.8617671047</v>
       </c>
       <c r="AE3" t="n">
-        <v>434960.619609833</v>
+        <v>495884.3166820868</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.000351810493352e-06</v>
+        <v>4.807268376083734e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.42708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>393448.5885453334</v>
+        <v>448557.8134759574</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1145.146887096553</v>
+        <v>1235.541546429112</v>
       </c>
       <c r="AB2" t="n">
-        <v>1566.840491240618</v>
+        <v>1690.522452070341</v>
       </c>
       <c r="AC2" t="n">
-        <v>1417.303433831054</v>
+        <v>1529.18136190791</v>
       </c>
       <c r="AD2" t="n">
-        <v>1145146.887096553</v>
+        <v>1235541.546429112</v>
       </c>
       <c r="AE2" t="n">
-        <v>1566840.491240618</v>
+        <v>1690522.452070341</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.62937578752641e-06</v>
+        <v>2.419367553676066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.88125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1417303.433831054</v>
+        <v>1529181.36190791</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>601.0656266385481</v>
+        <v>658.6981163923583</v>
       </c>
       <c r="AB3" t="n">
-        <v>822.4045075108235</v>
+        <v>901.2598225579893</v>
       </c>
       <c r="AC3" t="n">
-        <v>743.9153755659654</v>
+        <v>815.2448500191595</v>
       </c>
       <c r="AD3" t="n">
-        <v>601065.6266385481</v>
+        <v>658698.1163923583</v>
       </c>
       <c r="AE3" t="n">
-        <v>822404.5075108234</v>
+        <v>901259.8225579893</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.382101065455158e-06</v>
+        <v>3.537046561915959e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.59791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>743915.3755659654</v>
+        <v>815244.8500191595</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>498.1780587986374</v>
+        <v>547.4920843844542</v>
       </c>
       <c r="AB4" t="n">
-        <v>681.6291981131168</v>
+        <v>749.1028235008952</v>
       </c>
       <c r="AC4" t="n">
-        <v>616.5754641177881</v>
+        <v>677.6095013983851</v>
       </c>
       <c r="AD4" t="n">
-        <v>498178.0587986374</v>
+        <v>547492.0843844542</v>
       </c>
       <c r="AE4" t="n">
-        <v>681629.1981131168</v>
+        <v>749102.8235008952</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.651098117885799e-06</v>
+        <v>3.936465005265477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>616575.4641177881</v>
+        <v>677609.501398385</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>444.9234605124811</v>
+        <v>494.3227374443186</v>
       </c>
       <c r="AB5" t="n">
-        <v>608.7639073109357</v>
+        <v>676.3541773513637</v>
       </c>
       <c r="AC5" t="n">
-        <v>550.6643344026894</v>
+        <v>611.8038839339987</v>
       </c>
       <c r="AD5" t="n">
-        <v>444923.4605124812</v>
+        <v>494322.7374443186</v>
       </c>
       <c r="AE5" t="n">
-        <v>608763.9073109357</v>
+        <v>676354.1773513637</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.786685071480897e-06</v>
+        <v>4.137790370930667e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>550664.3344026894</v>
+        <v>611803.8839339986</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>413.7321421366138</v>
+        <v>462.960826867859</v>
       </c>
       <c r="AB6" t="n">
-        <v>566.086569445225</v>
+        <v>633.4434277108057</v>
       </c>
       <c r="AC6" t="n">
-        <v>512.0600617648622</v>
+        <v>572.9884760135203</v>
       </c>
       <c r="AD6" t="n">
-        <v>413732.1421366138</v>
+        <v>462960.826867859</v>
       </c>
       <c r="AE6" t="n">
-        <v>566086.5694452249</v>
+        <v>633443.4277108058</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.869250062718279e-06</v>
+        <v>4.260386436490548e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.28958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>512060.0617648622</v>
+        <v>572988.4760135203</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>403.3874006851835</v>
+        <v>444.553554303599</v>
       </c>
       <c r="AB7" t="n">
-        <v>551.9324378135947</v>
+        <v>608.257785316833</v>
       </c>
       <c r="AC7" t="n">
-        <v>499.2567805907062</v>
+        <v>550.206515981357</v>
       </c>
       <c r="AD7" t="n">
-        <v>403387.4006851835</v>
+        <v>444553.5543035989</v>
       </c>
       <c r="AE7" t="n">
-        <v>551932.4378135947</v>
+        <v>608257.7853168329</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.895372319832931e-06</v>
+        <v>4.299173892260906e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.1875</v>
       </c>
       <c r="AH7" t="n">
-        <v>499256.7805907062</v>
+        <v>550206.5159813571</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>405.1899439422812</v>
+        <v>446.3560975606968</v>
       </c>
       <c r="AB8" t="n">
-        <v>554.3987570205518</v>
+        <v>610.7241045237902</v>
       </c>
       <c r="AC8" t="n">
-        <v>501.4877177540521</v>
+        <v>552.4374531447031</v>
       </c>
       <c r="AD8" t="n">
-        <v>405189.9439422812</v>
+        <v>446356.0975606968</v>
       </c>
       <c r="AE8" t="n">
-        <v>554398.7570205518</v>
+        <v>610724.1045237902</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.895216830207248e-06</v>
+        <v>4.298943014547987e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.18958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>501487.7177540521</v>
+        <v>552437.4531447031</v>
       </c>
     </row>
   </sheetData>
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1449.533745765424</v>
+        <v>1541.392061757517</v>
       </c>
       <c r="AB2" t="n">
-        <v>1983.316019871829</v>
+        <v>2109.000620315101</v>
       </c>
       <c r="AC2" t="n">
-        <v>1794.031122536777</v>
+        <v>1907.720561113188</v>
       </c>
       <c r="AD2" t="n">
-        <v>1449533.745765424</v>
+        <v>1541392.061757517</v>
       </c>
       <c r="AE2" t="n">
-        <v>1983316.019871829</v>
+        <v>2109000.620315101</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.437411447709277e-06</v>
+        <v>2.113630852716797e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.08125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1794031.122536777</v>
+        <v>1907720.561113188</v>
       </c>
     </row>
     <row r="3">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>688.0829454035855</v>
+        <v>746.5072369090917</v>
       </c>
       <c r="AB3" t="n">
-        <v>941.4654419783132</v>
+        <v>1021.404135113978</v>
       </c>
       <c r="AC3" t="n">
-        <v>851.6133015509491</v>
+        <v>923.9227580084059</v>
       </c>
       <c r="AD3" t="n">
-        <v>688082.9454035856</v>
+        <v>746507.2369090917</v>
       </c>
       <c r="AE3" t="n">
-        <v>941465.4419783131</v>
+        <v>1021404.135113977</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.235719448344848e-06</v>
+        <v>3.287496848290302e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.19583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>851613.3015509491</v>
+        <v>923922.7580084059</v>
       </c>
     </row>
     <row r="4">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>555.8024974177459</v>
+        <v>614.2266994147012</v>
       </c>
       <c r="AB4" t="n">
-        <v>760.4734972425928</v>
+        <v>840.4120679087087</v>
       </c>
       <c r="AC4" t="n">
-        <v>687.894973997016</v>
+        <v>760.2043196732461</v>
       </c>
       <c r="AD4" t="n">
-        <v>555802.497417746</v>
+        <v>614226.6994147012</v>
       </c>
       <c r="AE4" t="n">
-        <v>760473.4972425927</v>
+        <v>840412.0679087087</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.521525900480789e-06</v>
+        <v>3.70775879632387e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.5875</v>
       </c>
       <c r="AH4" t="n">
-        <v>687894.973997016</v>
+        <v>760204.3196732461</v>
       </c>
     </row>
     <row r="5">
@@ -10823,28 +10823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>491.8696839154282</v>
+        <v>542.0207206453084</v>
       </c>
       <c r="AB5" t="n">
-        <v>672.997801292052</v>
+        <v>741.6166622534636</v>
       </c>
       <c r="AC5" t="n">
-        <v>608.7678356950843</v>
+        <v>670.837808873515</v>
       </c>
       <c r="AD5" t="n">
-        <v>491869.6839154282</v>
+        <v>542020.7206453084</v>
       </c>
       <c r="AE5" t="n">
-        <v>672997.801292052</v>
+        <v>741616.6622534635</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.681339849462986e-06</v>
+        <v>3.942756015666733e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.8375</v>
       </c>
       <c r="AH5" t="n">
-        <v>608767.8356950843</v>
+        <v>670837.808873515</v>
       </c>
     </row>
     <row r="6">
@@ -10929,28 +10929,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>464.2990976106658</v>
+        <v>514.450134340546</v>
       </c>
       <c r="AB6" t="n">
-        <v>635.2745087814525</v>
+        <v>703.893369742864</v>
       </c>
       <c r="AC6" t="n">
-        <v>574.6448012767228</v>
+        <v>636.7147744551535</v>
       </c>
       <c r="AD6" t="n">
-        <v>464299.0976106658</v>
+        <v>514450.134340546</v>
       </c>
       <c r="AE6" t="n">
-        <v>635274.5087814524</v>
+        <v>703893.369742864</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.752639113641888e-06</v>
+        <v>4.047597482446963e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.53125</v>
       </c>
       <c r="AH6" t="n">
-        <v>574644.8012767228</v>
+        <v>636714.7744551535</v>
       </c>
     </row>
     <row r="7">
@@ -11035,28 +11035,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>436.2909849174565</v>
+        <v>486.2714294467445</v>
       </c>
       <c r="AB7" t="n">
-        <v>596.9525733638779</v>
+        <v>665.3380225504427</v>
       </c>
       <c r="AC7" t="n">
-        <v>539.9802575902276</v>
+        <v>601.8390954860072</v>
       </c>
       <c r="AD7" t="n">
-        <v>436290.9849174565</v>
+        <v>486271.4294467445</v>
       </c>
       <c r="AE7" t="n">
-        <v>596952.5733638779</v>
+        <v>665338.0225504427</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.820586703008961e-06</v>
+        <v>4.147510504207608e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.25208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>539980.2575902275</v>
+        <v>601839.0954860072</v>
       </c>
     </row>
     <row r="8">
@@ -11141,28 +11141,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>421.9323576536389</v>
+        <v>463.7249777704235</v>
       </c>
       <c r="AB8" t="n">
-        <v>577.3064660835952</v>
+        <v>634.4889726876532</v>
       </c>
       <c r="AC8" t="n">
-        <v>522.2091472152902</v>
+        <v>573.934235645209</v>
       </c>
       <c r="AD8" t="n">
-        <v>421932.3576536389</v>
+        <v>463724.9777704235</v>
       </c>
       <c r="AE8" t="n">
-        <v>577306.4660835952</v>
+        <v>634488.9726876533</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.852884660286584e-06</v>
+        <v>4.195002792578139e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.125</v>
       </c>
       <c r="AH8" t="n">
-        <v>522209.1472152901</v>
+        <v>573934.235645209</v>
       </c>
     </row>
     <row r="9">
@@ -11247,28 +11247,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>423.5800849667301</v>
+        <v>465.3727050835146</v>
       </c>
       <c r="AB9" t="n">
-        <v>579.5609592859651</v>
+        <v>636.7434658900231</v>
       </c>
       <c r="AC9" t="n">
-        <v>524.248474750627</v>
+        <v>575.9735631805457</v>
       </c>
       <c r="AD9" t="n">
-        <v>423580.0849667301</v>
+        <v>465372.7050835146</v>
       </c>
       <c r="AE9" t="n">
-        <v>579560.9592859651</v>
+        <v>636743.4658900232</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.852579962576418e-06</v>
+        <v>4.194554752121814e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.12708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>524248.4747506269</v>
+        <v>575973.5631805457</v>
       </c>
     </row>
   </sheetData>
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2330.182963645709</v>
+        <v>2458.742210061504</v>
       </c>
       <c r="AB2" t="n">
-        <v>3188.259131277308</v>
+        <v>3364.159563857077</v>
       </c>
       <c r="AC2" t="n">
-        <v>2883.976154537876</v>
+        <v>3043.088896710033</v>
       </c>
       <c r="AD2" t="n">
-        <v>2330182.963645709</v>
+        <v>2458742.210061504</v>
       </c>
       <c r="AE2" t="n">
-        <v>3188259.131277308</v>
+        <v>3364159.563857077</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.102879746388974e-06</v>
+        <v>1.595616095233724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.77708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2883976.154537876</v>
+        <v>3043088.896710033</v>
       </c>
     </row>
     <row r="3">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>870.6016225439507</v>
+        <v>939.0869920099919</v>
       </c>
       <c r="AB3" t="n">
-        <v>1191.195548197504</v>
+        <v>1284.900252062205</v>
       </c>
       <c r="AC3" t="n">
-        <v>1077.509516930985</v>
+        <v>1162.271175374218</v>
       </c>
       <c r="AD3" t="n">
-        <v>870601.6225439507</v>
+        <v>939086.9920099919</v>
       </c>
       <c r="AE3" t="n">
-        <v>1191195.548197503</v>
+        <v>1284900.252062205</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.977095758693302e-06</v>
+        <v>2.860407786722323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.49583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1077509.516930985</v>
+        <v>1162271.175374218</v>
       </c>
     </row>
     <row r="4">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>683.7840960423732</v>
+        <v>743.6874703000854</v>
       </c>
       <c r="AB4" t="n">
-        <v>935.5835666304538</v>
+        <v>1017.546006040212</v>
       </c>
       <c r="AC4" t="n">
-        <v>846.2927841310254</v>
+        <v>920.4328433585222</v>
       </c>
       <c r="AD4" t="n">
-        <v>683784.0960423732</v>
+        <v>743687.4703000854</v>
       </c>
       <c r="AE4" t="n">
-        <v>935583.5666304538</v>
+        <v>1017546.006040212</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.292372315527696e-06</v>
+        <v>3.316541241146471e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.36458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>846292.7841310254</v>
+        <v>920432.8433585222</v>
       </c>
     </row>
     <row r="5">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>602.7059379630369</v>
+        <v>654.1126578669915</v>
       </c>
       <c r="AB5" t="n">
-        <v>824.6488538304175</v>
+        <v>894.9857959074294</v>
       </c>
       <c r="AC5" t="n">
-        <v>745.9455246227772</v>
+        <v>809.5696076664773</v>
       </c>
       <c r="AD5" t="n">
-        <v>602705.9379630369</v>
+        <v>654112.6578669915</v>
       </c>
       <c r="AE5" t="n">
-        <v>824648.8538304175</v>
+        <v>894985.7959074294</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.464568606597228e-06</v>
+        <v>3.565670100815629e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.43125</v>
       </c>
       <c r="AH5" t="n">
-        <v>745945.5246227771</v>
+        <v>809569.6076664773</v>
       </c>
     </row>
     <row r="6">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>541.9061431220525</v>
+        <v>593.3981143720275</v>
       </c>
       <c r="AB6" t="n">
-        <v>741.4598922313413</v>
+        <v>811.9134789610027</v>
       </c>
       <c r="AC6" t="n">
-        <v>670.6960007622761</v>
+        <v>734.4255960566886</v>
       </c>
       <c r="AD6" t="n">
-        <v>541906.1431220525</v>
+        <v>593398.1143720276</v>
       </c>
       <c r="AE6" t="n">
-        <v>741459.8922313413</v>
+        <v>811913.4789610028</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.59970813818809e-06</v>
+        <v>3.761186259684935e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.78333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>670696.0007622761</v>
+        <v>734425.5960566886</v>
       </c>
     </row>
     <row r="7">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>530.1271803194268</v>
+        <v>581.6191515694019</v>
       </c>
       <c r="AB7" t="n">
-        <v>725.3433956736251</v>
+        <v>795.7969824032865</v>
       </c>
       <c r="AC7" t="n">
-        <v>656.1176400163832</v>
+        <v>719.8472353107957</v>
       </c>
       <c r="AD7" t="n">
-        <v>530127.1803194268</v>
+        <v>581619.1515694018</v>
       </c>
       <c r="AE7" t="n">
-        <v>725343.3956736251</v>
+        <v>795796.9824032865</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.625441998937167e-06</v>
+        <v>3.798417301907056e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.66875</v>
       </c>
       <c r="AH7" t="n">
-        <v>656117.6400163833</v>
+        <v>719847.2353107957</v>
       </c>
     </row>
     <row r="8">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>505.7391002421445</v>
+        <v>557.0604792915273</v>
       </c>
       <c r="AB8" t="n">
-        <v>691.9745485857295</v>
+        <v>762.1947235405438</v>
       </c>
       <c r="AC8" t="n">
-        <v>625.9334688610853</v>
+        <v>689.4519288728468</v>
       </c>
       <c r="AD8" t="n">
-        <v>505739.1002421445</v>
+        <v>557060.4792915273</v>
       </c>
       <c r="AE8" t="n">
-        <v>691974.5485857296</v>
+        <v>762194.7235405438</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.681909441952282e-06</v>
+        <v>3.880112845983023e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.42291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>625933.4688610854</v>
+        <v>689451.9288728468</v>
       </c>
     </row>
     <row r="9">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>485.6939019666337</v>
+        <v>537.0152810160166</v>
       </c>
       <c r="AB9" t="n">
-        <v>664.5478239734407</v>
+        <v>734.7679989282552</v>
       </c>
       <c r="AC9" t="n">
-        <v>601.1243123521435</v>
+        <v>664.6427723639051</v>
       </c>
       <c r="AD9" t="n">
-        <v>485693.9019666337</v>
+        <v>537015.2810160166</v>
       </c>
       <c r="AE9" t="n">
-        <v>664547.8239734407</v>
+        <v>734767.9989282552</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.724848226745026e-06</v>
+        <v>3.942235499290788e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.24375</v>
       </c>
       <c r="AH9" t="n">
-        <v>601124.3123521436</v>
+        <v>664642.7723639051</v>
       </c>
     </row>
     <row r="10">
@@ -12392,28 +12392,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>475.9371765697106</v>
+        <v>518.8472421199075</v>
       </c>
       <c r="AB10" t="n">
-        <v>651.1982418490247</v>
+        <v>709.9096865932909</v>
       </c>
       <c r="AC10" t="n">
-        <v>589.0487956094256</v>
+        <v>642.1569024693293</v>
       </c>
       <c r="AD10" t="n">
-        <v>475937.1765697106</v>
+        <v>518847.2421199075</v>
       </c>
       <c r="AE10" t="n">
-        <v>651198.2418490248</v>
+        <v>709909.6865932909</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.733377163450434e-06</v>
+        <v>3.954574930427263e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.20833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>589048.7956094256</v>
+        <v>642156.9024693293</v>
       </c>
     </row>
     <row r="11">
@@ -12498,28 +12498,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>460.8536829009269</v>
+        <v>503.7637484511238</v>
       </c>
       <c r="AB11" t="n">
-        <v>630.5603403746182</v>
+        <v>689.2717851188845</v>
       </c>
       <c r="AC11" t="n">
-        <v>570.3805464862601</v>
+        <v>623.4886533461637</v>
       </c>
       <c r="AD11" t="n">
-        <v>460853.6829009269</v>
+        <v>503763.7484511238</v>
       </c>
       <c r="AE11" t="n">
-        <v>630560.3403746183</v>
+        <v>689271.7851188845</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.768669315334881e-06</v>
+        <v>4.005634645474742e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.06458333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>570380.54648626</v>
+        <v>623488.6533461637</v>
       </c>
     </row>
     <row r="12">
@@ -12604,28 +12604,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>461.9455156825724</v>
+        <v>504.8555812327693</v>
       </c>
       <c r="AB12" t="n">
-        <v>632.0542341547284</v>
+        <v>690.7656788989947</v>
       </c>
       <c r="AC12" t="n">
-        <v>571.7318651406896</v>
+        <v>624.8399720005932</v>
       </c>
       <c r="AD12" t="n">
-        <v>461945.5156825724</v>
+        <v>504855.5812327693</v>
       </c>
       <c r="AE12" t="n">
-        <v>632054.2341547285</v>
+        <v>690765.6788989947</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.76852226470203e-06</v>
+        <v>4.005421896662044e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.06666666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>571731.8651406895</v>
+        <v>624839.9720005932</v>
       </c>
     </row>
   </sheetData>
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>916.6908262370046</v>
+        <v>989.4678579897743</v>
       </c>
       <c r="AB2" t="n">
-        <v>1254.256830002503</v>
+        <v>1353.833575542684</v>
       </c>
       <c r="AC2" t="n">
-        <v>1134.55231850758</v>
+        <v>1224.625599210246</v>
       </c>
       <c r="AD2" t="n">
-        <v>916690.8262370046</v>
+        <v>989467.8579897743</v>
       </c>
       <c r="AE2" t="n">
-        <v>1254256.830002503</v>
+        <v>1353833.575542684</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.840787471281724e-06</v>
+        <v>2.764282223331813e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.00625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1134552.31850758</v>
+        <v>1224625.599210246</v>
       </c>
     </row>
     <row r="3">
@@ -13007,28 +13007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>524.4572480289294</v>
+        <v>573.0321929366739</v>
       </c>
       <c r="AB3" t="n">
-        <v>717.585544174008</v>
+        <v>784.0479267721097</v>
       </c>
       <c r="AC3" t="n">
-        <v>649.1001869756765</v>
+        <v>709.2194930591553</v>
       </c>
       <c r="AD3" t="n">
-        <v>524457.2480289293</v>
+        <v>573032.192936674</v>
       </c>
       <c r="AE3" t="n">
-        <v>717585.544174008</v>
+        <v>784047.9267721097</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.548721465508988e-06</v>
+        <v>3.827375810215104e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.00416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>649100.1869756764</v>
+        <v>709219.4930591553</v>
       </c>
     </row>
     <row r="4">
@@ -13113,28 +13113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>431.4517363695244</v>
+        <v>480.0265917687181</v>
       </c>
       <c r="AB4" t="n">
-        <v>590.3313000080188</v>
+        <v>656.7935601365724</v>
       </c>
       <c r="AC4" t="n">
-        <v>533.9909092704362</v>
+        <v>594.1101045726884</v>
       </c>
       <c r="AD4" t="n">
-        <v>431451.7363695244</v>
+        <v>480026.5917687181</v>
       </c>
       <c r="AE4" t="n">
-        <v>590331.3000080189</v>
+        <v>656793.5601365725</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.7972142517973e-06</v>
+        <v>4.200533604082903e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.84791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>533990.9092704362</v>
+        <v>594110.1045726885</v>
       </c>
     </row>
     <row r="5">
@@ -13219,28 +13219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>393.7622108998769</v>
+        <v>442.1664740984783</v>
       </c>
       <c r="AB5" t="n">
-        <v>538.7628285159341</v>
+        <v>604.9916768696407</v>
       </c>
       <c r="AC5" t="n">
-        <v>487.3440603207516</v>
+        <v>547.2521203403529</v>
       </c>
       <c r="AD5" t="n">
-        <v>393762.210899877</v>
+        <v>442166.4740984783</v>
       </c>
       <c r="AE5" t="n">
-        <v>538762.8285159341</v>
+        <v>604991.6768696407</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.90793831022026e-06</v>
+        <v>4.366806219020154e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.39791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>487344.0603207516</v>
+        <v>547252.1203403529</v>
       </c>
     </row>
     <row r="6">
@@ -13325,28 +13325,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>384.2904109933127</v>
+        <v>432.694674191914</v>
       </c>
       <c r="AB6" t="n">
-        <v>525.8030940174525</v>
+        <v>592.0319423711591</v>
       </c>
       <c r="AC6" t="n">
-        <v>475.6211846937035</v>
+        <v>535.5292447133047</v>
       </c>
       <c r="AD6" t="n">
-        <v>384290.4109933127</v>
+        <v>432694.674191914</v>
       </c>
       <c r="AE6" t="n">
-        <v>525803.0940174526</v>
+        <v>592031.9423711591</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.941187345005316e-06</v>
+        <v>4.416735782988381e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.26875</v>
       </c>
       <c r="AH6" t="n">
-        <v>475621.1846937035</v>
+        <v>535529.2447133047</v>
       </c>
     </row>
   </sheetData>
@@ -13622,28 +13622,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>630.3136431338139</v>
+        <v>693.1791790704574</v>
       </c>
       <c r="AB2" t="n">
-        <v>862.4229340110668</v>
+        <v>948.438333711289</v>
       </c>
       <c r="AC2" t="n">
-        <v>780.11449960724</v>
+        <v>857.9207102834447</v>
       </c>
       <c r="AD2" t="n">
-        <v>630313.6431338139</v>
+        <v>693179.1790704574</v>
       </c>
       <c r="AE2" t="n">
-        <v>862422.9340110668</v>
+        <v>948438.333711289</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.218594829401439e-06</v>
+        <v>3.402762606680266e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.56041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>780114.49960724</v>
+        <v>857920.7102834447</v>
       </c>
     </row>
     <row r="3">
@@ -13728,28 +13728,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>404.7920787743687</v>
+        <v>451.8559793808308</v>
       </c>
       <c r="AB3" t="n">
-        <v>553.8543803452417</v>
+        <v>618.2492854677589</v>
       </c>
       <c r="AC3" t="n">
-        <v>500.995295624596</v>
+        <v>559.2444413810373</v>
       </c>
       <c r="AD3" t="n">
-        <v>404792.0787743687</v>
+        <v>451855.9793808308</v>
       </c>
       <c r="AE3" t="n">
-        <v>553854.3803452416</v>
+        <v>618249.2854677589</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.839529608738695e-06</v>
+        <v>4.355119305756376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.15833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>500995.295624596</v>
+        <v>559244.4413810372</v>
       </c>
     </row>
     <row r="4">
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>353.9621895591017</v>
+        <v>401.1113415115843</v>
       </c>
       <c r="AB4" t="n">
-        <v>484.3066834644658</v>
+        <v>548.8182332396324</v>
       </c>
       <c r="AC4" t="n">
-        <v>438.0851333233157</v>
+        <v>496.4397913304692</v>
       </c>
       <c r="AD4" t="n">
-        <v>353962.1895591017</v>
+        <v>401111.3415115843</v>
       </c>
       <c r="AE4" t="n">
-        <v>484306.6834644658</v>
+        <v>548818.2332396323</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.997124744887543e-06</v>
+        <v>4.596830333464244e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.51875</v>
       </c>
       <c r="AH4" t="n">
-        <v>438085.1333233158</v>
+        <v>496439.7913304692</v>
       </c>
     </row>
     <row r="5">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>354.5831629499468</v>
+        <v>401.5617227018373</v>
       </c>
       <c r="AB5" t="n">
-        <v>485.1563266532327</v>
+        <v>549.4344646535523</v>
       </c>
       <c r="AC5" t="n">
-        <v>438.8536877586284</v>
+        <v>496.9972104831309</v>
       </c>
       <c r="AD5" t="n">
-        <v>354583.1629499468</v>
+        <v>401561.7227018373</v>
       </c>
       <c r="AE5" t="n">
-        <v>485156.3266532327</v>
+        <v>549434.4646535523</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.004416212806101e-06</v>
+        <v>4.608013598678908e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.49166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>438853.6877586285</v>
+        <v>496997.2104831309</v>
       </c>
     </row>
   </sheetData>
@@ -25218,28 +25218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>476.5705143493142</v>
+        <v>530.1630836339334</v>
       </c>
       <c r="AB2" t="n">
-        <v>652.0648025399693</v>
+        <v>725.3925201724757</v>
       </c>
       <c r="AC2" t="n">
-        <v>589.832652964252</v>
+        <v>656.1620761420102</v>
       </c>
       <c r="AD2" t="n">
-        <v>476570.5143493142</v>
+        <v>530163.0836339334</v>
       </c>
       <c r="AE2" t="n">
-        <v>652064.8025399692</v>
+        <v>725392.5201724756</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.536057366773376e-06</v>
+        <v>3.962539610924783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.08125</v>
       </c>
       <c r="AH2" t="n">
-        <v>589832.652964252</v>
+        <v>656162.0761420102</v>
       </c>
     </row>
     <row r="3">
@@ -25324,28 +25324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>332.6092025599078</v>
+        <v>378.6187631004562</v>
       </c>
       <c r="AB3" t="n">
-        <v>455.0905846248672</v>
+        <v>518.0428951550007</v>
       </c>
       <c r="AC3" t="n">
-        <v>411.6573779519163</v>
+        <v>468.6016083191765</v>
       </c>
       <c r="AD3" t="n">
-        <v>332609.2025599078</v>
+        <v>378618.7631004562</v>
       </c>
       <c r="AE3" t="n">
-        <v>455090.5846248672</v>
+        <v>518042.8951550007</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.019475088437626e-06</v>
+        <v>4.7178702654339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.82708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>411657.3779519162</v>
+        <v>468601.6083191765</v>
       </c>
     </row>
     <row r="4">
@@ -25430,28 +25430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>333.7160985067065</v>
+        <v>379.725659047255</v>
       </c>
       <c r="AB4" t="n">
-        <v>456.60508849208</v>
+        <v>519.5573990222135</v>
       </c>
       <c r="AC4" t="n">
-        <v>413.0273396956617</v>
+        <v>469.9715700629221</v>
       </c>
       <c r="AD4" t="n">
-        <v>333716.0985067065</v>
+        <v>379725.6590472549</v>
       </c>
       <c r="AE4" t="n">
-        <v>456605.08849208</v>
+        <v>519557.3990222135</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.023932131261481e-06</v>
+        <v>4.724834306929374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.81041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>413027.3396956617</v>
+        <v>469971.5700629221</v>
       </c>
     </row>
   </sheetData>
@@ -25727,28 +25727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.7357766785707</v>
+        <v>354.4864031421099</v>
       </c>
       <c r="AB2" t="n">
-        <v>425.1623983465772</v>
+        <v>485.0239356154086</v>
       </c>
       <c r="AC2" t="n">
-        <v>384.585495767553</v>
+        <v>438.7339319356424</v>
       </c>
       <c r="AD2" t="n">
-        <v>310735.7766785707</v>
+        <v>354486.4031421099</v>
       </c>
       <c r="AE2" t="n">
-        <v>425162.3983465772</v>
+        <v>485023.9356154086</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.930057029330197e-06</v>
+        <v>4.77504400930849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.08125</v>
       </c>
       <c r="AH2" t="n">
-        <v>384585.495767553</v>
+        <v>438733.9319356424</v>
       </c>
     </row>
   </sheetData>
@@ -26024,28 +26024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1283.653972028698</v>
+        <v>1374.837783205559</v>
       </c>
       <c r="AB2" t="n">
-        <v>1756.351995346108</v>
+        <v>1881.113708544128</v>
       </c>
       <c r="AC2" t="n">
-        <v>1588.728225965782</v>
+        <v>1701.582856360347</v>
       </c>
       <c r="AD2" t="n">
-        <v>1283653.972028698</v>
+        <v>1374837.783205559</v>
       </c>
       <c r="AE2" t="n">
-        <v>1756351.995346108</v>
+        <v>1881113.708544128</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.531619340998037e-06</v>
+        <v>2.262785014602676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.92916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1588728.225965783</v>
+        <v>1701582.856360347</v>
       </c>
     </row>
     <row r="3">
@@ -26130,28 +26130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>639.7111678016121</v>
+        <v>705.9180512062384</v>
       </c>
       <c r="AB3" t="n">
-        <v>875.2810418510765</v>
+        <v>965.8682205668392</v>
       </c>
       <c r="AC3" t="n">
-        <v>791.7454476814665</v>
+        <v>873.687113200501</v>
       </c>
       <c r="AD3" t="n">
-        <v>639711.1678016121</v>
+        <v>705918.0512062383</v>
       </c>
       <c r="AE3" t="n">
-        <v>875281.0418510764</v>
+        <v>965868.2205668392</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.307430544264273e-06</v>
+        <v>3.408953594432562e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.89375</v>
       </c>
       <c r="AH3" t="n">
-        <v>791745.4476814666</v>
+        <v>873687.1132005011</v>
       </c>
     </row>
     <row r="4">
@@ -26236,28 +26236,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>526.1813658023823</v>
+        <v>575.8792882916889</v>
       </c>
       <c r="AB4" t="n">
-        <v>719.944558174354</v>
+        <v>787.9434482418233</v>
       </c>
       <c r="AC4" t="n">
-        <v>651.2340599907265</v>
+        <v>712.7432314271981</v>
       </c>
       <c r="AD4" t="n">
-        <v>526181.3658023822</v>
+        <v>575879.2882916889</v>
       </c>
       <c r="AE4" t="n">
-        <v>719944.558174354</v>
+        <v>787943.4482418232</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.586550243337051e-06</v>
+        <v>3.821319680075445e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.39375</v>
       </c>
       <c r="AH4" t="n">
-        <v>651234.0599907264</v>
+        <v>712743.2314271982</v>
       </c>
     </row>
     <row r="5">
@@ -26342,28 +26342,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>459.9121281430412</v>
+        <v>509.6953019783684</v>
       </c>
       <c r="AB5" t="n">
-        <v>629.2720636164149</v>
+        <v>697.3875983365336</v>
       </c>
       <c r="AC5" t="n">
-        <v>569.2152210537517</v>
+        <v>630.8299047409357</v>
       </c>
       <c r="AD5" t="n">
-        <v>459912.1281430412</v>
+        <v>509695.3019783684</v>
       </c>
       <c r="AE5" t="n">
-        <v>629272.0636164149</v>
+        <v>697387.5983365336</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.763192698979582e-06</v>
+        <v>4.08228785334889e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>569215.2210537518</v>
+        <v>630829.9047409358</v>
       </c>
     </row>
     <row r="6">
@@ -26448,28 +26448,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>439.3697981121782</v>
+        <v>488.9823797469131</v>
       </c>
       <c r="AB6" t="n">
-        <v>601.1651414045481</v>
+        <v>669.0472643498197</v>
       </c>
       <c r="AC6" t="n">
-        <v>543.7907840494723</v>
+        <v>605.1943324540052</v>
       </c>
       <c r="AD6" t="n">
-        <v>439369.7981121782</v>
+        <v>488982.3797469132</v>
       </c>
       <c r="AE6" t="n">
-        <v>601165.1414045481</v>
+        <v>669047.2643498196</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.809815228648298e-06</v>
+        <v>4.151167083751202e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.40833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>543790.7840494723</v>
+        <v>605194.3324540053</v>
       </c>
     </row>
     <row r="7">
@@ -26554,28 +26554,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>414.7161700587324</v>
+        <v>456.2022377633893</v>
       </c>
       <c r="AB7" t="n">
-        <v>567.4329598605158</v>
+        <v>624.1960279301628</v>
       </c>
       <c r="AC7" t="n">
-        <v>513.2779545685884</v>
+        <v>564.6236350891348</v>
       </c>
       <c r="AD7" t="n">
-        <v>414716.1700587324</v>
+        <v>456202.2377633894</v>
       </c>
       <c r="AE7" t="n">
-        <v>567432.9598605158</v>
+        <v>624196.0279301628</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.867516379228393e-06</v>
+        <v>4.23641365603129e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.17916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>513277.9545685883</v>
+        <v>564623.6350891348</v>
       </c>
     </row>
     <row r="8">
@@ -26660,28 +26660,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>413.1129412204164</v>
+        <v>454.5990089250734</v>
       </c>
       <c r="AB8" t="n">
-        <v>565.2393514344673</v>
+        <v>622.0024195041144</v>
       </c>
       <c r="AC8" t="n">
-        <v>511.2937010519731</v>
+        <v>562.6393815725197</v>
       </c>
       <c r="AD8" t="n">
-        <v>413112.9412204164</v>
+        <v>454599.0089250734</v>
       </c>
       <c r="AE8" t="n">
-        <v>565239.3514344672</v>
+        <v>622002.4195041144</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.875671475177047e-06</v>
+        <v>4.248461838246876e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.14791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>511293.7010519732</v>
+        <v>562639.3815725197</v>
       </c>
     </row>
   </sheetData>
@@ -26957,28 +26957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2060.777561013883</v>
+        <v>2171.569086597049</v>
       </c>
       <c r="AB2" t="n">
-        <v>2819.646774068722</v>
+        <v>2971.236627148756</v>
       </c>
       <c r="AC2" t="n">
-        <v>2550.543643350705</v>
+        <v>2687.665973610476</v>
       </c>
       <c r="AD2" t="n">
-        <v>2060777.561013883</v>
+        <v>2171569.086597049</v>
       </c>
       <c r="AE2" t="n">
-        <v>2819646.774068722</v>
+        <v>2971236.627148756</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.18263161284319e-06</v>
+        <v>1.717380985074012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.11875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2550543.643350705</v>
+        <v>2687665.973610476</v>
       </c>
     </row>
     <row r="3">
@@ -27063,28 +27063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>821.165616994905</v>
+        <v>880.8685863884026</v>
       </c>
       <c r="AB3" t="n">
-        <v>1123.555024442659</v>
+        <v>1205.24326107596</v>
       </c>
       <c r="AC3" t="n">
-        <v>1016.324509829232</v>
+        <v>1090.216535808411</v>
       </c>
       <c r="AD3" t="n">
-        <v>821165.6169949051</v>
+        <v>880868.5863884026</v>
       </c>
       <c r="AE3" t="n">
-        <v>1123555.024442659</v>
+        <v>1205243.26107596</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.043064317122155e-06</v>
+        <v>2.966874698261636e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.12083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1016324.509829232</v>
+        <v>1090216.535808411</v>
       </c>
     </row>
     <row r="4">
@@ -27169,28 +27169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>650.2741115471301</v>
+        <v>701.4480980999211</v>
       </c>
       <c r="AB4" t="n">
-        <v>889.7337274878835</v>
+        <v>959.7522335263626</v>
       </c>
       <c r="AC4" t="n">
-        <v>804.8187892855686</v>
+        <v>868.1548273793256</v>
       </c>
       <c r="AD4" t="n">
-        <v>650274.1115471302</v>
+        <v>701448.0980999211</v>
       </c>
       <c r="AE4" t="n">
-        <v>889733.7274878834</v>
+        <v>959752.2335263626</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.352363407441976e-06</v>
+        <v>3.416029253786259e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.13125</v>
       </c>
       <c r="AH4" t="n">
-        <v>804818.7892855686</v>
+        <v>868154.8273793256</v>
       </c>
     </row>
     <row r="5">
@@ -27275,28 +27275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>577.3478064903959</v>
+        <v>628.4364521886152</v>
       </c>
       <c r="AB5" t="n">
-        <v>789.9527396277449</v>
+        <v>859.8544785440264</v>
       </c>
       <c r="AC5" t="n">
-        <v>714.5607588633056</v>
+        <v>777.791173925124</v>
       </c>
       <c r="AD5" t="n">
-        <v>577347.8064903959</v>
+        <v>628436.4521886152</v>
       </c>
       <c r="AE5" t="n">
-        <v>789952.7396277449</v>
+        <v>859854.4785440264</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.513685272383475e-06</v>
+        <v>3.650295867597759e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.28958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>714560.7588633057</v>
+        <v>777791.173925124</v>
       </c>
     </row>
     <row r="6">
@@ -27381,28 +27381,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>527.592752832047</v>
+        <v>578.7666498762869</v>
       </c>
       <c r="AB6" t="n">
-        <v>721.8756801743426</v>
+        <v>791.8940637432734</v>
       </c>
       <c r="AC6" t="n">
-        <v>652.9808784173829</v>
+        <v>716.3168057299137</v>
       </c>
       <c r="AD6" t="n">
-        <v>527592.7528320471</v>
+        <v>578766.649876287</v>
       </c>
       <c r="AE6" t="n">
-        <v>721875.6801743426</v>
+        <v>791894.0637432734</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.624297506984906e-06</v>
+        <v>3.810923527435424e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>652980.8784173828</v>
+        <v>716316.8057299136</v>
       </c>
     </row>
     <row r="7">
@@ -27487,28 +27487,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>507.1159242854485</v>
+        <v>558.2898213296884</v>
       </c>
       <c r="AB7" t="n">
-        <v>693.858379982968</v>
+        <v>763.8767635518988</v>
       </c>
       <c r="AC7" t="n">
-        <v>627.6375100337453</v>
+        <v>690.9734373462759</v>
       </c>
       <c r="AD7" t="n">
-        <v>507115.9242854485</v>
+        <v>558289.8213296884</v>
       </c>
       <c r="AE7" t="n">
-        <v>693858.379982968</v>
+        <v>763876.7635518988</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.672486483185262e-06</v>
+        <v>3.880902065568455e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.55833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>627637.5100337453</v>
+        <v>690973.4373462759</v>
       </c>
     </row>
     <row r="8">
@@ -27593,28 +27593,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>483.3677733810981</v>
+        <v>534.3710782247458</v>
       </c>
       <c r="AB8" t="n">
-        <v>661.3651122211605</v>
+        <v>731.1500840152443</v>
       </c>
       <c r="AC8" t="n">
-        <v>598.2453541425369</v>
+        <v>661.3701461724165</v>
       </c>
       <c r="AD8" t="n">
-        <v>483367.7733810981</v>
+        <v>534371.0782247458</v>
       </c>
       <c r="AE8" t="n">
-        <v>661365.1122211606</v>
+        <v>731150.0840152443</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.727792600485978e-06</v>
+        <v>3.961215895487286e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.325</v>
       </c>
       <c r="AH8" t="n">
-        <v>598245.354142537</v>
+        <v>661370.1461724165</v>
       </c>
     </row>
     <row r="9">
@@ -27699,28 +27699,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>463.0536935014586</v>
+        <v>505.6986972135429</v>
       </c>
       <c r="AB9" t="n">
-        <v>633.5704919358836</v>
+        <v>691.919267379541</v>
       </c>
       <c r="AC9" t="n">
-        <v>573.1034134072924</v>
+        <v>625.8834636156278</v>
       </c>
       <c r="AD9" t="n">
-        <v>463053.6935014586</v>
+        <v>505698.6972135429</v>
       </c>
       <c r="AE9" t="n">
-        <v>633570.4919358836</v>
+        <v>691919.267379541</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.769309256904746e-06</v>
+        <v>4.021505097571129e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.15416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>573103.4134072923</v>
+        <v>625883.4636156277</v>
       </c>
     </row>
     <row r="10">
@@ -27805,28 +27805,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>453.0990353347006</v>
+        <v>495.7440390467848</v>
       </c>
       <c r="AB10" t="n">
-        <v>619.9500894636019</v>
+        <v>678.2988649072594</v>
       </c>
       <c r="AC10" t="n">
-        <v>560.7829230306104</v>
+        <v>613.5629732389458</v>
       </c>
       <c r="AD10" t="n">
-        <v>453099.0353347006</v>
+        <v>495744.0390467849</v>
       </c>
       <c r="AE10" t="n">
-        <v>619950.0894636019</v>
+        <v>678298.8649072594</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.781319432511603e-06</v>
+        <v>4.038945902459668e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.10625</v>
       </c>
       <c r="AH10" t="n">
-        <v>560782.9230306104</v>
+        <v>613562.9732389458</v>
       </c>
     </row>
     <row r="11">
@@ -27911,28 +27911,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>452.3182973762419</v>
+        <v>494.9633010883261</v>
       </c>
       <c r="AB11" t="n">
-        <v>618.8818493451109</v>
+        <v>677.2306247887684</v>
       </c>
       <c r="AC11" t="n">
-        <v>559.8166342497436</v>
+        <v>612.596684458079</v>
       </c>
       <c r="AD11" t="n">
-        <v>452318.2973762419</v>
+        <v>494963.3010883261</v>
       </c>
       <c r="AE11" t="n">
-        <v>618881.8493451109</v>
+        <v>677230.6247887684</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.78828829983904e-06</v>
+        <v>4.0490658756666e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.07916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>559816.6342497437</v>
+        <v>612596.684458079</v>
       </c>
     </row>
   </sheetData>
@@ -28208,28 +28208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>306.0184459543403</v>
+        <v>355.9134346007397</v>
       </c>
       <c r="AB2" t="n">
-        <v>418.7079383357418</v>
+        <v>486.9764630132908</v>
       </c>
       <c r="AC2" t="n">
-        <v>378.7470403612602</v>
+        <v>440.50011285906</v>
       </c>
       <c r="AD2" t="n">
-        <v>306018.4459543403</v>
+        <v>355913.4346007397</v>
       </c>
       <c r="AE2" t="n">
-        <v>418707.9383357418</v>
+        <v>486976.4630132908</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.737055028088371e-06</v>
+        <v>4.56250766070739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.50208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>378747.0403612602</v>
+        <v>440500.1128590601</v>
       </c>
     </row>
   </sheetData>
@@ -28505,28 +28505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>718.7229031963848</v>
+        <v>782.1779796568912</v>
       </c>
       <c r="AB2" t="n">
-        <v>983.3883839699581</v>
+        <v>1070.210419023622</v>
       </c>
       <c r="AC2" t="n">
-        <v>889.5351767981298</v>
+        <v>968.0710386817633</v>
       </c>
       <c r="AD2" t="n">
-        <v>718722.9031963848</v>
+        <v>782177.9796568912</v>
       </c>
       <c r="AE2" t="n">
-        <v>983388.3839699581</v>
+        <v>1070210.419023622</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.082235044169268e-06</v>
+        <v>3.168967301702482e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.3375</v>
       </c>
       <c r="AH2" t="n">
-        <v>889535.1767981298</v>
+        <v>968071.0386817633</v>
       </c>
     </row>
     <row r="3">
@@ -28611,28 +28611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>444.5248414917868</v>
+        <v>492.0948360006614</v>
       </c>
       <c r="AB3" t="n">
-        <v>608.2184991809914</v>
+        <v>673.3058643080769</v>
       </c>
       <c r="AC3" t="n">
-        <v>550.170979259182</v>
+        <v>609.046497609229</v>
       </c>
       <c r="AD3" t="n">
-        <v>444524.8414917868</v>
+        <v>492094.8360006614</v>
       </c>
       <c r="AE3" t="n">
-        <v>608218.4991809914</v>
+        <v>673305.8643080769</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.727269035579244e-06</v>
+        <v>4.150648804464996e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.475</v>
       </c>
       <c r="AH3" t="n">
-        <v>550170.979259182</v>
+        <v>609046.4976092291</v>
       </c>
     </row>
     <row r="4">
@@ -28717,28 +28717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>367.4927877147255</v>
+        <v>414.9774413690286</v>
       </c>
       <c r="AB4" t="n">
-        <v>502.8198447888518</v>
+        <v>567.7904427937395</v>
       </c>
       <c r="AC4" t="n">
-        <v>454.8314245142875</v>
+        <v>513.6013198323958</v>
       </c>
       <c r="AD4" t="n">
-        <v>367492.7877147255</v>
+        <v>414977.4413690285</v>
       </c>
       <c r="AE4" t="n">
-        <v>502819.8447888518</v>
+        <v>567790.4427937395</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.977280944654858e-06</v>
+        <v>4.531143584396491e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.42708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>454831.4245142875</v>
+        <v>513601.3198323958</v>
       </c>
     </row>
     <row r="5">
@@ -28823,28 +28823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>364.2452211017814</v>
+        <v>411.7298747560844</v>
       </c>
       <c r="AB5" t="n">
-        <v>498.3763808764944</v>
+        <v>563.3469788813821</v>
       </c>
       <c r="AC5" t="n">
-        <v>450.8120385612848</v>
+        <v>509.5819338793929</v>
       </c>
       <c r="AD5" t="n">
-        <v>364245.2211017814</v>
+        <v>411729.8747560844</v>
       </c>
       <c r="AE5" t="n">
-        <v>498376.3808764944</v>
+        <v>563346.9788813822</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.982179936994681e-06</v>
+        <v>4.538599393278232e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.40833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>450812.0385612848</v>
+        <v>509581.9338793929</v>
       </c>
     </row>
   </sheetData>
@@ -29120,28 +29120,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1021.706417666973</v>
+        <v>1103.283288342714</v>
       </c>
       <c r="AB2" t="n">
-        <v>1397.943795157902</v>
+        <v>1509.560868533985</v>
       </c>
       <c r="AC2" t="n">
-        <v>1264.52600137447</v>
+        <v>1365.490497923086</v>
       </c>
       <c r="AD2" t="n">
-        <v>1021706.417666974</v>
+        <v>1103283.288342714</v>
       </c>
       <c r="AE2" t="n">
-        <v>1397943.795157902</v>
+        <v>1509560.868533985</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.731335840816049e-06</v>
+        <v>2.58472979169673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.91875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1264526.00137447</v>
+        <v>1365490.497923086</v>
       </c>
     </row>
     <row r="3">
@@ -29226,28 +29226,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>562.0340349888571</v>
+        <v>619.0269908594834</v>
       </c>
       <c r="AB3" t="n">
-        <v>768.9997618634222</v>
+        <v>846.9800384373717</v>
       </c>
       <c r="AC3" t="n">
-        <v>695.6075038891207</v>
+        <v>766.1454523128583</v>
       </c>
       <c r="AD3" t="n">
-        <v>562034.0349888571</v>
+        <v>619026.9908594834</v>
       </c>
       <c r="AE3" t="n">
-        <v>768999.7618634222</v>
+        <v>846980.0384373717</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.463836175211433e-06</v>
+        <v>3.678287374289815e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.29375</v>
       </c>
       <c r="AH3" t="n">
-        <v>695607.5038891208</v>
+        <v>766145.4523128583</v>
       </c>
     </row>
     <row r="4">
@@ -29332,28 +29332,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>469.4395496815133</v>
+        <v>518.3516252536799</v>
       </c>
       <c r="AB4" t="n">
-        <v>642.3079020855261</v>
+        <v>709.231561731845</v>
       </c>
       <c r="AC4" t="n">
-        <v>581.0069373952851</v>
+        <v>641.5434968929058</v>
       </c>
       <c r="AD4" t="n">
-        <v>469439.5496815133</v>
+        <v>518351.6252536799</v>
       </c>
       <c r="AE4" t="n">
-        <v>642307.902085526</v>
+        <v>709231.561731845</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.72089521078483e-06</v>
+        <v>4.062053557492154e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.0375</v>
       </c>
       <c r="AH4" t="n">
-        <v>581006.9373952851</v>
+        <v>641543.4968929058</v>
       </c>
     </row>
     <row r="5">
@@ -29438,28 +29438,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>423.7580910988074</v>
+        <v>472.7554180169946</v>
       </c>
       <c r="AB5" t="n">
-        <v>579.8045151289496</v>
+        <v>646.844819427918</v>
       </c>
       <c r="AC5" t="n">
-        <v>524.4687859657898</v>
+        <v>585.1108577141227</v>
       </c>
       <c r="AD5" t="n">
-        <v>423758.0910988074</v>
+        <v>472755.4180169945</v>
       </c>
       <c r="AE5" t="n">
-        <v>579804.5151289495</v>
+        <v>646844.8194279179</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.829064395172901e-06</v>
+        <v>4.223540489628674e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.57708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>524468.7859657898</v>
+        <v>585110.8577141227</v>
       </c>
     </row>
     <row r="6">
@@ -29544,28 +29544,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>394.5205997731322</v>
+        <v>443.3473344907271</v>
       </c>
       <c r="AB6" t="n">
-        <v>539.8004896300779</v>
+        <v>606.6073821541993</v>
       </c>
       <c r="AC6" t="n">
-        <v>488.2826885145279</v>
+        <v>548.7136249802098</v>
       </c>
       <c r="AD6" t="n">
-        <v>394520.5997731322</v>
+        <v>443347.3344907271</v>
       </c>
       <c r="AE6" t="n">
-        <v>539800.4896300778</v>
+        <v>606607.3821541993</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.912549623239857e-06</v>
+        <v>4.348176479402644e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.24583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>488282.6885145279</v>
+        <v>548713.6249802099</v>
       </c>
     </row>
     <row r="7">
@@ -29650,28 +29650,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>394.7008344638264</v>
+        <v>443.5275691814214</v>
       </c>
       <c r="AB7" t="n">
-        <v>540.0470946852789</v>
+        <v>606.8539872094005</v>
       </c>
       <c r="AC7" t="n">
-        <v>488.5057579293731</v>
+        <v>548.9366943950549</v>
       </c>
       <c r="AD7" t="n">
-        <v>394700.8344638264</v>
+        <v>443527.5691814214</v>
       </c>
       <c r="AE7" t="n">
-        <v>540047.0946852789</v>
+        <v>606853.9872094005</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.917266302791663e-06</v>
+        <v>4.355218060745806e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.22916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>488505.7579293731</v>
+        <v>548936.6943950549</v>
       </c>
     </row>
   </sheetData>
